--- a/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 26,32</t>
+          <t>6,78; 26,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 31,36</t>
+          <t>8,24; 31,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 15,92</t>
+          <t>-6,73; 15,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 10,74</t>
+          <t>-10,21; 11,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 343,64</t>
+          <t>31,31; 333,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,26; 265,9</t>
+          <t>35,65; 259,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 95,25</t>
+          <t>-25,81; 95,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 54,37</t>
+          <t>-30,62; 60,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,73</t>
+          <t>4,93; 12,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,63</t>
+          <t>5,83; 15,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 17,25</t>
+          <t>8,27; 17,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,1</t>
+          <t>1,61; 9,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,2; 148,03</t>
+          <t>40,59; 155,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 120,4</t>
+          <t>32,65; 122,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,83; 140,65</t>
+          <t>47,73; 142,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 77,32</t>
+          <t>9,01; 76,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,39</t>
+          <t>6,65; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,19</t>
+          <t>4,72; 12,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,93</t>
+          <t>5,31; 12,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 11,35</t>
+          <t>-7,61; 11,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,98; 139,49</t>
+          <t>52,63; 136,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 85,4</t>
+          <t>26,76; 88,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,62; 89,23</t>
+          <t>31,73; 94,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 104,18</t>
+          <t>-28,17; 100,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,3</t>
+          <t>8,07; 16,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,68</t>
+          <t>7,44; 15,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,03</t>
+          <t>4,18; 11,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,93</t>
+          <t>-6,58; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 155,0</t>
+          <t>57,42; 164,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 153,13</t>
+          <t>52,22; 145,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 111,77</t>
+          <t>28,91; 108,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 29,24</t>
+          <t>-32,34; 30,38</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,74</t>
+          <t>6,33; 12,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,6</t>
+          <t>7,66; 15,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,39</t>
+          <t>4,71; 11,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,32</t>
+          <t>6,11; 12,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,93; 135,59</t>
+          <t>50,01; 132,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,87; 112,51</t>
+          <t>45,74; 114,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,67; 104,61</t>
+          <t>33,27; 102,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 91,56</t>
+          <t>36,32; 94,48</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,39; 11,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,75; 12,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,78; 10,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,87</t>
+          <t>-0,11; 7,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>68,36; 114,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,65; 92,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>46,15; 79,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 52,78</t>
+          <t>-3,98; 51,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 26,21</t>
+          <t>5,44; 26,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 31,3</t>
+          <t>7,8; 30,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 15,13</t>
+          <t>-7,28; 15,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 333,77</t>
+          <t>25,19; 342,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 259,79</t>
+          <t>36,9; 246,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 95,96</t>
+          <t>-28,52; 94,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,98</t>
+          <t>4,97; 13,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,39</t>
+          <t>6,04; 15,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 17,57</t>
+          <t>8,02; 17,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,59; 155,11</t>
+          <t>40,65; 150,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,65; 122,78</t>
+          <t>33,02; 123,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,73; 142,31</t>
+          <t>46,37; 149,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,31</t>
+          <t>6,5; 13,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,26</t>
+          <t>5,31; 12,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,32</t>
+          <t>5,23; 12,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,63; 136,41</t>
+          <t>51,42; 138,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,76; 88,12</t>
+          <t>29,02; 85,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,73; 94,61</t>
+          <t>32,21; 94,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,62</t>
+          <t>7,87; 16,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,41</t>
+          <t>7,44; 15,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,98</t>
+          <t>4,04; 12,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,42; 164,93</t>
+          <t>54,19; 156,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,22; 145,93</t>
+          <t>51,97; 159,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 108,32</t>
+          <t>27,45; 108,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,63</t>
+          <t>6,42; 12,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,11</t>
+          <t>7,59; 14,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,43</t>
+          <t>4,61; 11,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 132,83</t>
+          <t>51,65; 135,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,74; 114,5</t>
+          <t>45,9; 114,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,27; 102,38</t>
+          <t>32,76; 103,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,45; 11,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,55</t>
+          <t>8,72; 12,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,56</t>
+          <t>6,86; 10,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,36; 114,23</t>
+          <t>69,17; 112,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,65; 92,05</t>
+          <t>55,63; 91,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,15; 79,94</t>
+          <t>46,71; 82,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 26,11</t>
+          <t>5,64; 26,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 30,19</t>
+          <t>7,49; 31,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 15,46</t>
+          <t>-6,47; 15,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 11,45</t>
+          <t>-10,3; 10,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 342,0</t>
+          <t>31,14; 343,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,9; 246,39</t>
+          <t>33,26; 265,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 94,8</t>
+          <t>-27,32; 95,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 60,38</t>
+          <t>-31,03; 54,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,22</t>
+          <t>5,08; 12,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 15,87</t>
+          <t>6,13; 15,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,71</t>
+          <t>7,85; 17,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 9,92</t>
+          <t>1,86; 10,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,65; 150,38</t>
+          <t>40,2; 148,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,02; 123,75</t>
+          <t>34,95; 120,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,37; 149,02</t>
+          <t>46,83; 140,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 76,65</t>
+          <t>9,64; 77,32</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,48</t>
+          <t>6,73; 13,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,28</t>
+          <t>4,55; 12,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,61</t>
+          <t>4,92; 11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 11,23</t>
+          <t>-9,12; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,42; 138,8</t>
+          <t>52,98; 139,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,02; 85,61</t>
+          <t>26,16; 85,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,21; 94,75</t>
+          <t>29,62; 89,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 100,44</t>
+          <t>-32,61; 104,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 16,1</t>
+          <t>7,52; 16,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,99</t>
+          <t>7,52; 15,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,0</t>
+          <t>4,03; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,17</t>
+          <t>-7,17; 4,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,19; 156,81</t>
+          <t>53,46; 155,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,97; 159,76</t>
+          <t>53,46; 153,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 108,02</t>
+          <t>26,93; 111,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 30,38</t>
+          <t>-35,79; 29,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,66</t>
+          <t>6,31; 12,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,9</t>
+          <t>7,07; 14,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,36</t>
+          <t>4,53; 11,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 12,56</t>
+          <t>6,01; 12,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,65; 135,46</t>
+          <t>52,93; 135,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,9; 114,76</t>
+          <t>41,87; 112,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,76; 103,31</t>
+          <t>33,67; 104,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,32; 94,48</t>
+          <t>34,53; 91,56</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,78</t>
+          <t>8,59; 12,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,61</t>
+          <t>8,83; 12,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,82</t>
+          <t>6,84; 10,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,8</t>
+          <t>-0,16; 7,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,17; 112,43</t>
+          <t>70,45; 116,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,63; 91,09</t>
+          <t>56,0; 92,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,71; 82,76</t>
+          <t>47,23; 81,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 51,65</t>
+          <t>-3,15; 52,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,09</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>131,27%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>121,54%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>29,0%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 26,32</t>
+          <t>6,67; 14,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 31,36</t>
+          <t>7,47; 16,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 15,92</t>
+          <t>6,61; 15,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 10,74</t>
+          <t>-0,61; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 343,64</t>
+          <t>53,17; 154,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,26; 265,9</t>
+          <t>44,27; 122,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 95,25</t>
+          <t>37,87; 113,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 54,37</t>
+          <t>-2,66; 58,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,37%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>-26,11%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,73</t>
+          <t>6,73; 13,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,63</t>
+          <t>4,55; 12,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 17,25</t>
+          <t>4,92; 11,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,1</t>
+          <t>-41,7; 11,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,2; 148,03</t>
+          <t>52,98; 139,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 120,4</t>
+          <t>26,16; 85,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,83; 140,65</t>
+          <t>29,62; 89,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 77,32</t>
+          <t>-66,57; 109,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>99,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,87%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,94%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>-10,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,39</t>
+          <t>7,52; 16,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,19</t>
+          <t>7,52; 15,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,93</t>
+          <t>4,03; 12,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 11,35</t>
+          <t>-10,86; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,98; 139,49</t>
+          <t>53,46; 155,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 85,4</t>
+          <t>53,46; 153,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,62; 89,23</t>
+          <t>26,93; 111,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 104,18</t>
+          <t>-54,68; 24,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>99,96%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>76,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>52,46%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,3</t>
+          <t>6,31; 12,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,68</t>
+          <t>7,07; 14,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,03</t>
+          <t>4,53; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,93</t>
+          <t>3,16; 11,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 155,0</t>
+          <t>52,93; 135,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,46; 153,13</t>
+          <t>41,87; 112,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 111,77</t>
+          <t>33,67; 104,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 29,24</t>
+          <t>20,95; 85,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,29%</t>
+          <t>73,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,74</t>
+          <t>8,59; 12,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,6</t>
+          <t>8,83; 12,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,39</t>
+          <t>6,84; 10,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,32</t>
+          <t>-22,4; 6,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,93; 135,59</t>
+          <t>70,45; 116,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,87; 112,51</t>
+          <t>56,0; 92,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,67; 104,61</t>
+          <t>47,23; 81,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 91,56</t>
+          <t>-55,18; 44,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>91,93%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>63,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 12,13</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 12,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 10,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 7,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>70,45; 116,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>56,0; 92,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>47,23; 81,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 52,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,17</t>
+          <t>6,4; 13,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,28</t>
+          <t>7,64; 16,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,47</t>
+          <t>7,16; 15,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 8,52</t>
+          <t>-0,35; 8,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,17; 154,3</t>
+          <t>52,03; 152,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,27; 122,24</t>
+          <t>43,86; 126,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,87; 113,94</t>
+          <t>40,14; 118,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 58,12</t>
+          <t>-1,6; 63,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,39</t>
+          <t>6,83; 13,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,19</t>
+          <t>4,94; 12,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,93</t>
+          <t>5,07; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 11,65</t>
+          <t>-40,32; 11,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,98; 139,49</t>
+          <t>55,05; 137,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,16; 85,4</t>
+          <t>28,4; 86,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,62; 89,23</t>
+          <t>31,23; 94,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,57; 109,66</t>
+          <t>-65,64; 106,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,3</t>
+          <t>8,08; 16,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,68</t>
+          <t>7,48; 15,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,03</t>
+          <t>4,09; 11,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 4,03</t>
+          <t>-10,42; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,46; 155,0</t>
+          <t>57,51; 156,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,46; 153,13</t>
+          <t>50,42; 156,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,93; 111,77</t>
+          <t>27,09; 101,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-54,68; 24,1</t>
+          <t>-53,42; 25,78</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,74</t>
+          <t>6,31; 12,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,6</t>
+          <t>7,62; 14,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,39</t>
+          <t>4,39; 11,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,2</t>
+          <t>3,09; 11,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,93; 135,59</t>
+          <t>50,97; 134,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,87; 112,51</t>
+          <t>45,4; 111,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 104,61</t>
+          <t>30,83; 104,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 85,86</t>
+          <t>21,62; 84,98</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,48; 12,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,73; 12,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,93; 10,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 6,5</t>
+          <t>-21,26; 6,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>71,36; 115,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,04; 92,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>47,66; 81,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 44,88</t>
+          <t>-52,8; 43,65</t>
         </is>
       </c>
     </row>
